--- a/Part2/testcases.xlsx
+++ b/Part2/testcases.xlsx
@@ -7,88 +7,1313 @@
     <workbookView windowWidth="28000" windowHeight="11980" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="功能测试" sheetId="1" r:id="rId1"/>
-    <sheet name="性能测试" sheetId="3" r:id="rId2"/>
-    <sheet name="安全性测试" sheetId="4" r:id="rId3"/>
-    <sheet name="接口测试" sheetId="5" r:id="rId4"/>
-    <sheet name="兼容测试" sheetId="8" r:id="rId5"/>
-    <sheet name="Accessibility测试" sheetId="6" r:id="rId6"/>
+    <sheet name="前期需求调研" sheetId="9" r:id="rId1"/>
+    <sheet name="功能测试" sheetId="1" r:id="rId2"/>
+    <sheet name="性能测试" sheetId="3" r:id="rId3"/>
+    <sheet name="安全性测试" sheetId="4" r:id="rId4"/>
+    <sheet name="接口测试" sheetId="5" r:id="rId5"/>
+    <sheet name="兼容测试" sheetId="8" r:id="rId6"/>
     <sheet name="多语言测试" sheetId="7" r:id="rId7"/>
+    <sheet name="易用性测试" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381">
+  <si>
+    <t>此任务是设计一个类似论坛发帖功能的测试用例集合。
+1.用户需要在登录后才能进行操作
+2.发帖一般文本编辑框有长度限制。
+3.发帖内容除文字外，一般可以上传图片，视频，音频格式并在post后展示。
+4.文件上传除格式要求，也有文件大小要求， 上传后前端会经过一些压缩，需要检查压缩后的显示效果，声音效果。
+5.用例设计方式分为功能需求和非功能需求。非功能需求侧重性能，安全性，兼容性，accessibility，多语言，易用性等测试。分层测试需单独测试接口，避免用户绕过页面限制。</t>
+  </si>
+  <si>
+    <t>用例编号</t>
+  </si>
+  <si>
+    <t>用例描述</t>
+  </si>
+  <si>
+    <t>前置条件</t>
+  </si>
+  <si>
+    <t>操作步骤</t>
+  </si>
+  <si>
+    <t>预期结果</t>
+  </si>
+  <si>
+    <t>优先级</t>
+  </si>
+  <si>
+    <t>是否通过</t>
+  </si>
+  <si>
+    <t>Case_function_1</t>
+  </si>
+  <si>
+    <t>功能_文本为null&amp;未上传附件</t>
+  </si>
+  <si>
+    <t>用户已登录Cookie有效</t>
+  </si>
+  <si>
+    <t>1. 点击Write article进入Post&amp;Articles页面
+2.直接点击post按钮</t>
+  </si>
+  <si>
+    <t>提示Article content should not be null</t>
+  </si>
+  <si>
+    <t>Case_function_2</t>
+  </si>
+  <si>
+    <t>功能_文本不空且小于最大长度&amp;未上传附件</t>
+  </si>
+  <si>
+    <t>1. 点击Write article进入Post&amp;Articles页面
+2.在富文本框内输入"testing messages"
+3.点击post按钮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.提示：Post successfull
+2.发布后检查发布格式需合理，内容不能缺失
+</t>
+  </si>
+  <si>
+    <t>Case_function_3</t>
+  </si>
+  <si>
+    <t>功能_文本不空且小于最大长度&amp;上传图片</t>
+  </si>
+  <si>
+    <t>1.用户已登录Cookie有效
+2.准备一张图片格式的文件</t>
+  </si>
+  <si>
+    <t>1. 点击Write article进入Post&amp;Articles页面
+2.在富文本框内输入"testing messages"
+3.Drag一张图片（文件后缀jpg,jpeg,tiff,bmp,gif,png）且图片大小小于图片要求上限</t>
+  </si>
+  <si>
+    <t>1.提示：Post successfull
+2.发布后检查发布格式需合理，内容不能缺失，图片显示正常。</t>
+  </si>
+  <si>
+    <t>Case_function_4</t>
+  </si>
+  <si>
+    <t>功能_文本不空且小于最大长度&amp;上传视频</t>
+  </si>
+  <si>
+    <t>1.用户已登录Cookie有效
+2.准备一份视频类文件</t>
+  </si>
+  <si>
+    <t>1. 点击Write article进入Post&amp;Articles页面
+2.在富文本框内输入"testing messages"
+4.Drag一个视频类文件（文件后缀avi、wmv、mpeg、mp4、m4v、mov、asf、flv、f4v、rmvb等）且视频大小小于视频要求上限</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.提示：Post successfull
+2.发布后检查发布格式需合理，内容不能缺失，视频可以正常播放
+</t>
+  </si>
+  <si>
+    <t>Case_function_5</t>
+  </si>
+  <si>
+    <t>功能_文本不空且小于最大长度&amp;上传音频</t>
+  </si>
+  <si>
+    <t>1.用户已登录Cookie有效
+2.准备一份音频类文件</t>
+  </si>
+  <si>
+    <t>1. 点击Write article进入Post&amp;Articles页面
+2.在富文本框内输入"testing messages"
+4.Drag一个音频类文件（文件后缀MP3、WAV、WMA、FLAC、OGG等）且视频大小小于视频要求上限</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.提示：Post successfull
+2.发布后检查发布格式需合理，内容不能缺失，音频可以正常播放
+</t>
+  </si>
+  <si>
+    <t>Case_function_6</t>
+  </si>
+  <si>
+    <t>功能_文本不空且小于最大长度&amp;上传音视频&amp;图片</t>
+  </si>
+  <si>
+    <t>1.用户已登录Cookie有效
+2.准备一张图片格式的文件
+3.准备一份视频类文件
+4.准备一份音频类文件</t>
+  </si>
+  <si>
+    <t>1. 点击Write article进入Post&amp;Articles页面
+2.在富文本框内输入"testing messages"
+4.Drag一张图片（文件后缀jpg,jpeg,tiff,bmp,gif,png）且图片大小小于图片要求上限
+5.点击upload，上传一个视频类文件
+6.点击upload，上传一个音频类文件
+7.文件之间录入文字并回车
+8.点击Post</t>
+  </si>
+  <si>
+    <t>1.提示：Post successfull
+2.发布后检查发布格式需合理，内容不能缺失
+3.视频音频播放正常，图片显示正常</t>
+  </si>
+  <si>
+    <t>Case_function_7</t>
+  </si>
+  <si>
+    <t>功能_文本超过最大长度限制</t>
+  </si>
+  <si>
+    <t>1. 点击Write article进入Post&amp;Articles页面
+2.录入超长文本超过最大限制
+3.点击post按钮</t>
+  </si>
+  <si>
+    <t>提示：Exceed the maximum length</t>
+  </si>
+  <si>
+    <t>Case_function_8</t>
+  </si>
+  <si>
+    <t>功能_文本包含特殊字符，数字</t>
+  </si>
+  <si>
+    <t>1. 点击Write article进入Post&amp;Articles页面
+2.录入“%¥&amp;*%#@#¥”
+3.点击post按钮</t>
+  </si>
+  <si>
+    <t>1.提示：Post successfull
+2.发布后检查发布格式需合理，内容不能缺失,且与录入内容保持一致</t>
+  </si>
+  <si>
+    <t>Case_function_9</t>
+  </si>
+  <si>
+    <t>功能_文本包含全角半角数字，字符</t>
+  </si>
+  <si>
+    <t>1. 点击Write article进入Post&amp;Articles页面
+2.录入全角字符
+3.点击post按钮</t>
+  </si>
+  <si>
+    <t>1.提示：Post successfull
+2.发布后检查发布格式需合理，内容不能缺失，且与录入字符全角保持一致</t>
+  </si>
+  <si>
+    <t>Case_function_10</t>
+  </si>
+  <si>
+    <t>功能_文本包含emoji</t>
+  </si>
+  <si>
+    <t>用户已登录Cookie有效
+键盘支持录入emoji</t>
+  </si>
+  <si>
+    <t>1. 点击Write article进入Post&amp;Articles页面
+2.录入“😊”
+3.点击post按钮</t>
+  </si>
+  <si>
+    <t>1.提示：Post successfull
+2.发布后检查发布格式需合理，内容不能缺失，emoji显示正常。</t>
+  </si>
+  <si>
+    <t>Case_function_11</t>
+  </si>
+  <si>
+    <t>功能_文本换行</t>
+  </si>
+  <si>
+    <t>用户已登录Cookie有效
+录入文本会超过屏幕一行</t>
+  </si>
+  <si>
+    <t>1. 点击Write article进入Post&amp;Articles页面
+2.录入“Dynamically allocating bandwidth among voice, data and other business applications, HKT Multiprotocol Label Switching (MPLS) solution provides secure and reliable network connecting dispersed locations of offices, business partners and mobile workforces.
+HKT MPLS Solution provides a wide range of value-added services and delivers guaranteed Quality of Service (QoS) and Class of Service (CoS) so that our customers would enjoy a stable, efficient and secure private network for businesses while minimizing the investment cost and manpower, and thus achieving higher efficiency and productivity.”
+3.点击post按钮</t>
+  </si>
+  <si>
+    <t>1.提示：Post successfull
+2.保存后自动换行，整个frame格式不变</t>
+  </si>
+  <si>
+    <t>Case_function_12</t>
+  </si>
+  <si>
+    <t>功能_文本支持复制粘贴</t>
+  </si>
+  <si>
+    <t>1. 点击Write article进入Post&amp;Articles页面
+2.从其他位置复制一段内容并粘贴
+3.点击post按钮
+4.发布后复制已经发布的文字</t>
+  </si>
+  <si>
+    <t>1.提示：Post successfull
+2.保存后粘贴的文字显示正确
+3.发布后的文字可被选中并允许复制到剪切板</t>
+  </si>
+  <si>
+    <t>Case_function_13</t>
+  </si>
+  <si>
+    <t>功能_按钮有效性</t>
+  </si>
+  <si>
+    <t>1. 点击Write article进入Post&amp;Articles页面
+2.检查Write article按钮</t>
+  </si>
+  <si>
+    <t>此时Write article应置灰或者隐藏</t>
+  </si>
+  <si>
+    <t>Case_function_14</t>
+  </si>
+  <si>
+    <t>功能_编辑修改后重新提交</t>
+  </si>
+  <si>
+    <t>用户已登录Cookie有效
+已执行Case_function_6</t>
+  </si>
+  <si>
+    <t>1.编辑文字内容
+2.调整视频音频图片位置
+3.点击post按钮</t>
+  </si>
+  <si>
+    <t>1.提示：Post successfull
+2.发布后内容更新无缺失，格式正确。</t>
+  </si>
+  <si>
+    <t>Case_function_15</t>
+  </si>
+  <si>
+    <t>功能_反复编辑，修改提交</t>
+  </si>
+  <si>
+    <t>用户已登录Cookie有效
+已执行Case_function_14</t>
+  </si>
+  <si>
+    <t>1.反复重复编辑修改发布</t>
+  </si>
+  <si>
+    <t>1.提示：Post successfull
+2.发布内容以最后一次编辑为准。</t>
+  </si>
+  <si>
+    <t>Case_function_16</t>
+  </si>
+  <si>
+    <t>功能_Hotkey</t>
+  </si>
+  <si>
+    <t>通过Hotkey进行发帖操作</t>
+  </si>
+  <si>
+    <t>支持键盘hotkey操作且各项提示内容准确。</t>
+  </si>
+  <si>
+    <t>Case_function_17</t>
+  </si>
+  <si>
+    <t>功能_文件上传按钮_文件格式满足要求</t>
+  </si>
+  <si>
+    <t>用户已登录Cookie有效
+已执行Case_function_3，4，5</t>
+  </si>
+  <si>
+    <t>1.遍历所有支持的文件类型并进行本地上传
+2.上传成功后点击post</t>
+  </si>
+  <si>
+    <t>1.本地上传操作成功
+2.发布成功，文字图片内容显示正确，音视频正常播放。</t>
+  </si>
+  <si>
+    <t>Case_function_18</t>
+  </si>
+  <si>
+    <t>功能_文件上传按钮_文件格式不满足要求</t>
+  </si>
+  <si>
+    <t>用户已登录Cookie有效
+准备txt,pdf,word等不满足上传要求的文件格式</t>
+  </si>
+  <si>
+    <t>1. 点击Write article进入Post&amp;Articles页面
+2.点击upload，找到待上传文件</t>
+  </si>
+  <si>
+    <t>待上传文件无法选中</t>
+  </si>
+  <si>
+    <t>Case_function_19</t>
+  </si>
+  <si>
+    <t>功能_文件上传按钮_文件数量&gt;1</t>
+  </si>
+  <si>
+    <t>用户已登录Cookie有效
+准备10个满足文件格式的文件</t>
+  </si>
+  <si>
+    <t>1. 点击Write article进入Post&amp;Articles页面
+2.点击upload，全选待上传文件
+3.点击打开</t>
+  </si>
+  <si>
+    <t>待上传文件上传成功</t>
+  </si>
+  <si>
+    <t>Case_function_20</t>
+  </si>
+  <si>
+    <t>功能_文件上传按钮_文件数量&gt;上限</t>
+  </si>
+  <si>
+    <t>用户已登录Cookie有效
+准备101个满足文件格式的文件，假设最多100个</t>
+  </si>
+  <si>
+    <t>提示：超过文件数量最大值</t>
+  </si>
+  <si>
+    <t>Case_function_21</t>
+  </si>
+  <si>
+    <t>功能_文件上传按钮_链接拼接地址</t>
+  </si>
+  <si>
+    <t>用户已登录Cookie有效
+正常架构上传文件会存到独立的文件存储系统</t>
+  </si>
+  <si>
+    <t>1. 点击Write article进入Post&amp;Articles页面
+2.点击upload，全选待上传文件</t>
+  </si>
+  <si>
+    <t>查看生成的文件地址和实际文件存放地址应保持一致</t>
+  </si>
+  <si>
+    <t>Case_function_22</t>
+  </si>
+  <si>
+    <t>功能_文件上传按钮_上传文件链接拼接入库</t>
+  </si>
+  <si>
+    <t>用户已登录Cookie有效
+已执行Case_function_21</t>
+  </si>
+  <si>
+    <t>编辑article内容，post</t>
+  </si>
+  <si>
+    <t>检查数据库存文件位置的链接，和生成链接应保持一致</t>
+  </si>
+  <si>
+    <t>Case_function_23</t>
+  </si>
+  <si>
+    <t>功能_文件拖拽_鼠标操作</t>
+  </si>
+  <si>
+    <t>用户已登录Cookie有效
+PC端通过鼠标操作</t>
+  </si>
+  <si>
+    <t>1. 点击Write article进入Post&amp;Articles页面
+2.通过鼠标进行拖拽操作，松开鼠标</t>
+  </si>
+  <si>
+    <t>可以正常操作</t>
+  </si>
+  <si>
+    <t>Case_function_24</t>
+  </si>
+  <si>
+    <t>功能_文件拖拽_手势操作</t>
+  </si>
+  <si>
+    <t>用户已登录Cookie有效
+Mac，Pad端通过手势操作</t>
+  </si>
+  <si>
+    <t>1. 点击Write article进入Post&amp;Articles页面
+2.通过单手点选，长按，拖拽到对应区域</t>
+  </si>
+  <si>
+    <t>Case_function_25</t>
+  </si>
+  <si>
+    <t>功能_文件拖拽_文件格式满足要求</t>
+  </si>
+  <si>
+    <t>用户已登录Cookie有效
+满足格式要求的文件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 点击Write article进入Post&amp;Articles页面
+2.选择文件拖拽到相应区域
+3.文件正常上传并生成文件链接
+</t>
+  </si>
+  <si>
+    <t>图片上传成功且生成链接有效
+图片显示完整</t>
+  </si>
+  <si>
+    <t>Case_function_26</t>
+  </si>
+  <si>
+    <t>功能_文件拖拽_文件格式不满足要求</t>
+  </si>
+  <si>
+    <t>用户已登录Cookie有效
+不满足格式要求的文件</t>
+  </si>
+  <si>
+    <t>1. 点击Write article进入Post&amp;Articles页面
+2.选择文件拖拽到相应区域，松开鼠标或手指离开屏幕
+3.文件未能上传</t>
+  </si>
+  <si>
+    <t>提示文件格式不正确</t>
+  </si>
+  <si>
+    <t>Case_function_27</t>
+  </si>
+  <si>
+    <t>功能_文件拖拽_文件数量&gt;1</t>
+  </si>
+  <si>
+    <t>1. 点击Write article进入Post&amp;Articles页面
+2.选择多个文件拖拽到相应区域，松开鼠标或者手指离开屏幕
+3.文件正常上传
+4.增加文字内容并post</t>
+  </si>
+  <si>
+    <t>所有文件上传成功，且正常显示
+发布后格式正确，图片文字内容准确，音视频正常播放</t>
+  </si>
+  <si>
+    <t>Case_function_28</t>
+  </si>
+  <si>
+    <t>功能_文件拖拽_文件数量&gt;上限</t>
+  </si>
+  <si>
+    <t>用户已登录Cookie有效
+ 准备101个满足文件格式的文件，假设支持最多100个</t>
+  </si>
+  <si>
+    <t>1. 点击Write article进入Post&amp;Articles页面
+2.选择多个文件拖拽到相应区域，松开鼠标或者手指离开屏幕
+3.前100个文件正常上传
+5.增加文字内容并post</t>
+  </si>
+  <si>
+    <t>提示一个文件未能上传，超出最大数量</t>
+  </si>
+  <si>
+    <t>Case_function_29</t>
+  </si>
+  <si>
+    <t>功能_文件拖拽_文件包含符合格式和不符合格式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">用户已登录Cookie有效
+准备5个符合格式，5个不符合格式
+</t>
+  </si>
+  <si>
+    <t>1. 点击Write article进入Post&amp;Articles页面
+2.选择10个文件拖拽到相应区域，松开鼠标或者手指离开屏幕
+3.观察提示信息</t>
+  </si>
+  <si>
+    <t>提示5个上传成功，5个文件格式不正确</t>
+  </si>
+  <si>
+    <t>Case_function_30</t>
+  </si>
+  <si>
+    <t>功能_文件拖拽_图片大小支持Zoom</t>
+  </si>
+  <si>
+    <t>用户已登录Cookie有效
+已执行Case_function_23</t>
+  </si>
+  <si>
+    <t>用鼠标放大缩小，或手势放大缩小</t>
+  </si>
+  <si>
+    <t>Case_function_31</t>
+  </si>
+  <si>
+    <t>功能_文件拖拽_文件展示链接位置</t>
+  </si>
+  <si>
+    <t>用户已登录Cookie有效
+执行完拖拽相关用例</t>
+  </si>
+  <si>
+    <t>在富文本文件上右键在新的页面打开</t>
+  </si>
+  <si>
+    <t>可以在浏览器中打开，显示链接正确，且与上传图片样式完全一致</t>
+  </si>
+  <si>
+    <t>Case_function_32</t>
+  </si>
+  <si>
+    <t>功能_文件上传成功_检查数据库存储</t>
+  </si>
+  <si>
+    <t>执行完上传成功相关测试用例</t>
+  </si>
+  <si>
+    <t>检查数据库中图片字段的url</t>
+  </si>
+  <si>
+    <t>该字段与页面上可查的链接保持一致</t>
+  </si>
+  <si>
+    <t>Case_function_33</t>
+  </si>
+  <si>
+    <t>功能_文件上传成功_检查文件库存储</t>
+  </si>
+  <si>
+    <t>检查文件存储服务中，该文件的索引</t>
+  </si>
+  <si>
+    <t>可通过索引检索到该图片，且与页面显示保持一致</t>
+  </si>
+  <si>
+    <t>Case_function_34</t>
+  </si>
+  <si>
+    <t>功能_上传一个0kb文件</t>
+  </si>
+  <si>
+    <t>上传一个0kb文件</t>
+  </si>
+  <si>
+    <t>提示文件大小不能为0</t>
+  </si>
+  <si>
+    <t>Case_function_35</t>
+  </si>
+  <si>
+    <t>功能_上传一个已损坏文件</t>
+  </si>
+  <si>
+    <t>提示文件已经损坏</t>
+  </si>
+  <si>
+    <t>Case_function_36</t>
+  </si>
+  <si>
+    <t>功能_上传一个超大文件</t>
+  </si>
+  <si>
+    <t>可接受的合理提示：
+1.提示文件超过最大限制
+2.提示上传文件超时</t>
+  </si>
+  <si>
+    <t>Case_function_37</t>
+  </si>
+  <si>
+    <t>功能_多次上传同一个文件</t>
+  </si>
+  <si>
+    <t>功能_上传同一个文件10次</t>
+  </si>
+  <si>
+    <t>页面上传成功10次，不会被覆盖
+每个页面生成的链接不同
+数据库存储10个资源
+文件存储10个资源</t>
+  </si>
+  <si>
+    <t>Case_function_38</t>
+  </si>
+  <si>
+    <t>功能_上传一个正在被其他程序使用的文件</t>
+  </si>
+  <si>
+    <t>上传一个正在被其他程序使用的文件</t>
+  </si>
+  <si>
+    <t>提示文件正被其他程序使用，请稍后再试</t>
+  </si>
+  <si>
+    <t>Case_function_39</t>
+  </si>
+  <si>
+    <t>功能_其他用户登录_检查发帖是否成功</t>
+  </si>
+  <si>
+    <t>需要提前准备两个有效用户</t>
+  </si>
+  <si>
+    <t>1.用户1登录发布成功
+2.用户2登录查看</t>
+  </si>
+  <si>
+    <t>用户2可查看发布成功的内容，但无法编辑。</t>
+  </si>
+  <si>
+    <t>Case_function_40</t>
+  </si>
+  <si>
+    <t>功能_幂等性_新增连续点击提交</t>
+  </si>
+  <si>
+    <t>1. 点击Write article进入Post&amp;Articles页面
+2.录入有效内容
+3.连续点击post按钮</t>
+  </si>
+  <si>
+    <t>检查实际成功发布仅1次。</t>
+  </si>
+  <si>
+    <t>Case_function_41</t>
+  </si>
+  <si>
+    <t>功能_幂等性_编辑修改后连续点击提交按钮</t>
+  </si>
+  <si>
+    <t>1.修改本人发布内容
+2.连续点击post按钮</t>
+  </si>
+  <si>
+    <t>检查实际成功修改发布仅1次。</t>
+  </si>
+  <si>
+    <t>Case_function_42</t>
+  </si>
+  <si>
+    <t>功能_断网情况下操作上传文件</t>
+  </si>
+  <si>
+    <t>在Post&amp;Articles页面页面上传文件</t>
+  </si>
+  <si>
+    <t>提示请检查网络，稍后重试</t>
+  </si>
+  <si>
+    <t>功能_操作上传文件过程断网</t>
+  </si>
+  <si>
+    <t>1.在Post&amp;Articles页面页面上传文件
+2.文件未上传成功拔掉网线或关闭wifi/4G/5G
+3.恢复网络</t>
+  </si>
+  <si>
+    <t>1.提示请检查网络，稍后重试
+2.恢复网络后检查应支持断点续传</t>
+  </si>
+  <si>
+    <t>Case_function_43</t>
+  </si>
+  <si>
+    <t>功能_弱网情况下操作上传文件</t>
+  </si>
+  <si>
+    <t>1.在Post&amp;Articles页面页面上传文件
+2.网络为弱网情况下</t>
+  </si>
+  <si>
+    <t>1.提示网络不稳定，请稍后再传
+2.给出超时时间</t>
+  </si>
+  <si>
+    <t>Case_function_44</t>
+  </si>
+  <si>
+    <t>功能_断网情况下post</t>
+  </si>
+  <si>
+    <t>1. 点击Write article进入Post&amp;Articles页面
+2.录入有效内容
+3.点击post按钮</t>
+  </si>
+  <si>
+    <t>Case_function_45</t>
+  </si>
+  <si>
+    <t>功能_弱网情况下post</t>
+  </si>
+  <si>
+    <t>1.提示网络不稳定，稍后重试
+2.给出超时时间
+3.给出明确的是否发布成功的结果</t>
+  </si>
+  <si>
+    <t>是否通过（执行时填写）</t>
+  </si>
+  <si>
+    <t>Case_performance_1</t>
+  </si>
+  <si>
+    <t>背景数据小于1000，当前用户发布成功响应时间</t>
+  </si>
+  <si>
+    <t>小于100ms</t>
+  </si>
+  <si>
+    <t>Case_performance_2</t>
+  </si>
+  <si>
+    <t>背景数据小于1000，当前用户发布后其他用户观察该帖子可被查看的响应时间</t>
+  </si>
+  <si>
+    <t>小于1s</t>
+  </si>
+  <si>
+    <t>Case_performance_3</t>
+  </si>
+  <si>
+    <t>背景数据小于1000，500用户同时打开同一个帖子</t>
+  </si>
+  <si>
+    <t>每个用户小于100ms</t>
+  </si>
+  <si>
+    <t>Case_performance_4</t>
+  </si>
+  <si>
+    <t>背景数据小于1000，500用户同时打开不同帖子</t>
+  </si>
+  <si>
+    <t>每个用户小于101ms</t>
+  </si>
+  <si>
+    <t>Case_performance_5</t>
+  </si>
+  <si>
+    <t>海量用户同时进行post操作</t>
+  </si>
+  <si>
+    <t>TP99小于300ms</t>
+  </si>
+  <si>
+    <t>Case_performance_6</t>
+  </si>
+  <si>
+    <t>海量用户同时进行编辑操作</t>
+  </si>
+  <si>
+    <t>Case_performance_7</t>
+  </si>
+  <si>
+    <t>海量用户同时进行文件上传操作</t>
+  </si>
+  <si>
+    <t>根据文件大小，单个用户上传时间不超过1mins</t>
+  </si>
+  <si>
+    <t>Case_performance_8</t>
+  </si>
+  <si>
+    <t>当前服务端数据库已经包含20000条以上已发布的帖子，当前用户进行发布操作</t>
+  </si>
+  <si>
+    <t>小于200ms，可接受一定的性能劣化趋势</t>
+  </si>
+  <si>
+    <t>Case_performance_9</t>
+  </si>
+  <si>
+    <t>通过性能压测工具压测，10mins内稳定post100000个帖子</t>
+  </si>
+  <si>
+    <t>QPS满足业务定义要求
+Error%低于0.1%</t>
+  </si>
+  <si>
+    <t>Case_performance_10</t>
+  </si>
+  <si>
+    <t>post后，服务端接口响应时间</t>
+  </si>
+  <si>
+    <t>Case_performance_11</t>
+  </si>
+  <si>
+    <t>打开Post&amp;Articles，首次前端页面加载时间</t>
+  </si>
+  <si>
+    <t>小于500ms</t>
+  </si>
+  <si>
+    <t>打开Post&amp;Articles，第n次前端页面加载时间</t>
+  </si>
+  <si>
+    <t>小于300ms，前端页面缓存机制</t>
+  </si>
+  <si>
+    <t>Case_performance_12</t>
+  </si>
+  <si>
+    <t>点击post后，首次前端帖子全部加载时间</t>
+  </si>
+  <si>
+    <t>点击post后，第n次前端帖子全部加载时间</t>
+  </si>
+  <si>
+    <t>Case_performance_13</t>
+  </si>
+  <si>
+    <t>静态资源加载时间</t>
+  </si>
+  <si>
+    <t>全部加载小于2s</t>
+  </si>
+  <si>
+    <t>Case_performance_14</t>
+  </si>
+  <si>
+    <t>上传超大文件，上传时间检查</t>
+  </si>
+  <si>
+    <t>1G文件上传时间小于5mins
+10mins上传不完提示超时，重传</t>
+  </si>
+  <si>
+    <t>Case_performance_15</t>
+  </si>
+  <si>
+    <t>上传超大文件，前端应支持文件压缩</t>
+  </si>
+  <si>
+    <t>上传图片类超过10M，前端应压缩文件</t>
+  </si>
+  <si>
+    <t>Case_performance_16</t>
+  </si>
+  <si>
+    <t>发布后图片加载</t>
+  </si>
+  <si>
+    <t>Case_performance_17</t>
+  </si>
+  <si>
+    <t>发布后音视频播放</t>
+  </si>
+  <si>
+    <t>音视频播放流畅不卡顿</t>
+  </si>
+  <si>
+    <t>1.性能测试需同时考虑服务端，前端，存储系统（如数据库，redis，文件存储等）的相关性能
+2.项目首次发布前建议进行一轮性能摸底，以做到心中有数。</t>
+  </si>
   <si>
     <t>用例名称</t>
   </si>
   <si>
-    <t>前置条件</t>
-  </si>
-  <si>
-    <t>操作步骤</t>
-  </si>
-  <si>
-    <t>预期结果</t>
-  </si>
-  <si>
-    <t>是否通过</t>
-  </si>
-  <si>
-    <t>功能</t>
-  </si>
-  <si>
-    <t>用户已登录Cookie有效</t>
-  </si>
-  <si>
-    <t>并发</t>
-  </si>
-  <si>
-    <t>幂等性</t>
-  </si>
-  <si>
-    <t>Hotkey</t>
-  </si>
-  <si>
-    <t>是否通过（执行时填写）</t>
-  </si>
-  <si>
-    <t>用户已登录Cookie失效</t>
-  </si>
-  <si>
-    <t>账户安全</t>
-  </si>
-  <si>
-    <t>存储安全</t>
-  </si>
-  <si>
-    <t>网络安全</t>
-  </si>
-  <si>
-    <t>渗透测试</t>
-  </si>
-  <si>
-    <t>PC端：主流操作系统+主流浏览器</t>
+    <t>Case_security_1</t>
+  </si>
+  <si>
+    <t>安全性_权限_禁用</t>
+  </si>
+  <si>
+    <t>用户已登录Cookie有效
+防止垂直越权</t>
+  </si>
+  <si>
+    <t>1. 点击Write article进入Post&amp;Articles页面
+2.管理员禁用当前用户发帖权限
+3.用户在界面操作录入内容后点post</t>
+  </si>
+  <si>
+    <t>提示：Permission denied</t>
+  </si>
+  <si>
+    <t>Case_security_2</t>
+  </si>
+  <si>
+    <t>安全性_权限_启用</t>
+  </si>
+  <si>
+    <t>用户已登录Cookie有效
+已执行Case_security_1</t>
+  </si>
+  <si>
+    <t>1.管理员启用当前用户发帖权限
+2.用户重新登录后操作</t>
+  </si>
+  <si>
+    <t>提示:Post successfull</t>
+  </si>
+  <si>
+    <t>Case_security_3</t>
+  </si>
+  <si>
+    <t>安全性_权限_超时</t>
+  </si>
+  <si>
+    <t>用户已登录，未操作超时30mins
+浏览器停留在发帖页面</t>
+  </si>
+  <si>
+    <t>1.用户操作发帖内容并post</t>
+  </si>
+  <si>
+    <t>提示：your session has time out,please log on again</t>
+  </si>
+  <si>
+    <t>Case_security_4</t>
+  </si>
+  <si>
+    <t>安全性_权限_隔离</t>
+  </si>
+  <si>
+    <t>两个用户同时登录,且cookie有效
+防止水平越权</t>
+  </si>
+  <si>
+    <t>1.页面上用户试图操作他人发帖
+2.通过postman或其他模拟http请求工具对他人文章进行修改</t>
+  </si>
+  <si>
+    <t>1.用户看不到他人发帖的编辑权限
+2.服务端权限控制不允许操作</t>
+  </si>
+  <si>
+    <t>Case_security_5</t>
+  </si>
+  <si>
+    <t>安全性_sql注入</t>
+  </si>
+  <si>
+    <t>检查开发使用数据交互方式</t>
+  </si>
+  <si>
+    <t>mybatis可以解决sql注入问题
+若其他方式，需要检查sql拼接方式</t>
+  </si>
+  <si>
+    <t>Case_security_6</t>
+  </si>
+  <si>
+    <t>安全性_数据安全</t>
+  </si>
+  <si>
+    <t>操作页面增加水印</t>
+  </si>
+  <si>
+    <t>水印显示正常</t>
+  </si>
+  <si>
+    <t>Case_security_7</t>
+  </si>
+  <si>
+    <t>安全性_任意文件上传</t>
+  </si>
+  <si>
+    <t>上传一个带有木马程序的文件</t>
+  </si>
+  <si>
+    <t>禁止上传</t>
+  </si>
+  <si>
+    <t>Case_security_8</t>
+  </si>
+  <si>
+    <t>安全性_网络安全</t>
+  </si>
+  <si>
+    <t>对post，上传文件操作进行抓包</t>
+  </si>
+  <si>
+    <t>线上正式环境，应以https请求为佳。</t>
+  </si>
+  <si>
+    <t>Case_security_9</t>
+  </si>
+  <si>
+    <t>安全性_XSS</t>
+  </si>
+  <si>
+    <t>1. 点击Write article进入Post&amp;Articles页面
+2.录入：&lt;script&gt;alert(123)&lt;/script&gt;
+3.Post</t>
+  </si>
+  <si>
+    <t>相关字符串进行过滤
+进入发布页面无弹窗</t>
+  </si>
+  <si>
+    <t>Case_security_10</t>
+  </si>
+  <si>
+    <t>安全性_服务器安全</t>
+  </si>
+  <si>
+    <t>1.检查放开的请求端口
+2.服务器严格禁用不需要的协议</t>
+  </si>
+  <si>
+    <t>服务端不使用的端口禁用
+不需要的协议禁用</t>
+  </si>
+  <si>
+    <t>Case_security_11</t>
+  </si>
+  <si>
+    <t>安全性_入口网址检查</t>
+  </si>
+  <si>
+    <t>当前网站包含字母a，则有可能出现使用西里尔语a进行网址冒充</t>
+  </si>
+  <si>
+    <t>检查访问网址的地址是否正确。</t>
+  </si>
+  <si>
+    <t>Case_security_12</t>
+  </si>
+  <si>
+    <t>安全性_任意文件读取</t>
+  </si>
+  <si>
+    <t>访问当前网址url中，构造../../../..，类似的跨目录字符串,绕过文件权限访问后台任意文件</t>
+  </si>
+  <si>
+    <t>1.检查当前用户是否有该文件的访问权限
+2.过滤请求中的敏感字符</t>
+  </si>
+  <si>
+    <t>接口名称</t>
+  </si>
+  <si>
+    <t>验证点</t>
+  </si>
+  <si>
+    <t>登录接口</t>
+  </si>
+  <si>
+    <t>生成有效cookie，并作为后续接口调用header鉴权的部分</t>
+  </si>
+  <si>
+    <t>上传文件接口</t>
+  </si>
+  <si>
+    <t>1.上传文件格式满足要求，Assert：接口返回response，文件链接，上传成功的code
+2.上传文件格式不满足要求，Assert：接口返回response提示，上传是否成功字段给出正确的error code
+3.上传文件大小不满足要求，Assert：接口返回response提示，上传是否成功字段</t>
+  </si>
+  <si>
+    <t>发布article接口</t>
+  </si>
+  <si>
+    <t>1.Post，使用post接口，满足rest api要求。
+2.检查发布key-value schema
+3.检查发布时间，若发布时间字段早于实际时间，时间戳冲突
+4.所有key值大小检查，保持前后端一致
+5.发布后检查json与数据库内容一致</t>
+  </si>
+  <si>
+    <t>查看artilcle接口</t>
+  </si>
+  <si>
+    <t>1.返回值显示完整。
+2.与发布接口，相同字段进行diff
+3.显示内容和数据库字段保持一致。</t>
+  </si>
+  <si>
+    <t>查看文件接口</t>
+  </si>
+  <si>
+    <t>1.文件链接可以直接url访问并查看。
+2.检查上传文件和显示文件的相似度。</t>
+  </si>
+  <si>
+    <t>PC端：主流操作系统</t>
+  </si>
+  <si>
+    <t>Win7，Win10，macOS,以及不同版本</t>
+  </si>
+  <si>
+    <t>浏览器</t>
+  </si>
+  <si>
+    <t>Chrome，Safari，IE，Firefox，QQ，360以及不同版本（明确最低支持的版本，和当前最高版本
+）</t>
+  </si>
+  <si>
+    <t>不同操作系统x不同版本浏览器</t>
+  </si>
+  <si>
+    <t>预期结果：所有功能可用</t>
   </si>
   <si>
     <t>设备：</t>
   </si>
   <si>
-    <t>Pad端：iPad，Huawei，Surface等</t>
-  </si>
-  <si>
-    <t>视觉障碍者</t>
-  </si>
-  <si>
-    <t>全盲</t>
-  </si>
-  <si>
-    <t>色弱</t>
+    <t>Pad端：iPad，Huawei，Surface等，不同屏幕分辨率</t>
+  </si>
+  <si>
+    <t>浏览器：</t>
+  </si>
+  <si>
+    <t>Chrome，Safari，IE，Firefox，QQ，360以及不同版本</t>
+  </si>
+  <si>
+    <t>不同设备x不同版本浏览器</t>
+  </si>
+  <si>
+    <t>实际测试中，会首先调研用户top10的设备及版本，和top10浏览器的类型和版本。
+然后进行有针对性的测试。</t>
   </si>
   <si>
     <t>切换操作系统+浏览器不同语言版本进行测试</t>
+  </si>
+  <si>
+    <t>操作系统locale</t>
+  </si>
+  <si>
+    <t>英文</t>
+  </si>
+  <si>
+    <t>中文</t>
+  </si>
+  <si>
+    <t>法语</t>
+  </si>
+  <si>
+    <t>葡萄牙语</t>
+  </si>
+  <si>
+    <t>西班牙语</t>
+  </si>
+  <si>
+    <t>希伯来语</t>
+  </si>
+  <si>
+    <t>.....</t>
+  </si>
+  <si>
+    <t>简体_中文</t>
+  </si>
+  <si>
+    <t>操作系统+浏览器语言版本一致时，检查所有功能。预期结果，所有功能可用</t>
+  </si>
+  <si>
+    <t>操作系统+浏览器语言版本不一致时，检查所有功能。预期结果，所有功能可用</t>
+  </si>
+  <si>
+    <t>若穷举测试，没有那么多的测试人力和测试物料，在实际测试中，会提前调研用户所在国家他们使用操作系统和浏览器的语言习惯，有针对性的测试。</t>
+  </si>
+  <si>
+    <t>Case_usability_1</t>
+  </si>
+  <si>
+    <t>录入内容建议支持清空</t>
+  </si>
+  <si>
+    <t>Case_usability_2</t>
+  </si>
+  <si>
+    <t>建议提供暂存/草稿按钮</t>
+  </si>
+  <si>
+    <t>Case_usability_3</t>
+  </si>
+  <si>
+    <t>建议错误提示信息的准确性，有一套标准的error code</t>
+  </si>
+  <si>
+    <t>Case_usability_4</t>
+  </si>
+  <si>
+    <t>建议鼠标hover到功能按钮时，给出按钮的实际意义，方便用户理解</t>
+  </si>
+  <si>
+    <t>Case_usability_5</t>
+  </si>
+  <si>
+    <t>录入内容均为回车或者空格等无实际意义的内容，应给出友好提示</t>
+  </si>
+  <si>
+    <t>Case_usability_6</t>
+  </si>
+  <si>
+    <t>文件拖拽速度允许调节</t>
+  </si>
+  <si>
+    <t>Case_usability_7</t>
+  </si>
+  <si>
+    <t>若使用pad操作，功能使用时需检查实际耗电量</t>
+  </si>
+  <si>
+    <t>Case_usability_8</t>
+  </si>
+  <si>
+    <t>建议提供article发布成功时间间隔要大于5mins，防止恶意发帖。</t>
+  </si>
+  <si>
+    <t>Case_usability_9</t>
+  </si>
+  <si>
+    <t>按钮一致性，Write article 按钮有铅笔图标，但Post按钮没有，建议为Post提供一个图标，保持风格一致</t>
+  </si>
+  <si>
+    <t>Case_usability_10</t>
+  </si>
+  <si>
+    <t>建议未写入内容时提示文字可输入最大值，上传文件最大值，上传文件支持格式等相关提示</t>
+  </si>
+  <si>
+    <t>Case_usability_11</t>
+  </si>
+  <si>
+    <t>建议文本录入框高度值再大一些，方便用户编辑全部内容</t>
+  </si>
+  <si>
+    <t>Case_usability_12</t>
+  </si>
+  <si>
+    <t>Accessibility测试，允许视障人员通过话筒录入内容</t>
+  </si>
+  <si>
+    <t>Case_usability_13</t>
+  </si>
+  <si>
+    <t>Accessibility测试，允许视障人员通过accessbility工具中的语音提示感知按钮位置，文本输入位置</t>
+  </si>
+  <si>
+    <t>Case_usability_14</t>
+  </si>
+  <si>
+    <t>Accessibility测试，色弱人员，通过改变页面颜色区分按钮和界面边界</t>
+  </si>
+  <si>
+    <t>Case_usability_15</t>
+  </si>
+  <si>
+    <t>Accessibility测试，建议为肢体残障人士提供眼球捕捉器等辅助工具</t>
   </si>
 </sst>
 </file>
@@ -96,15 +1321,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -126,13 +1358,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -144,6 +1369,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -159,6 +1399,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -196,15 +1444,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,14 +1458,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,15 +1488,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,13 +1509,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,7 +1611,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,67 +1659,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,79 +1689,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,30 +1721,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -523,6 +1731,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -554,17 +1777,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,159 +1805,177 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1047,62 +2297,185 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="14.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="35.1160714285714" customWidth="1"/>
-    <col min="3" max="3" width="31.9910714285714" customWidth="1"/>
-    <col min="4" max="4" width="33.9196428571429" customWidth="1"/>
-    <col min="5" max="5" width="16.9642857142857" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I15"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -1111,94 +2484,831 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B16"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="14.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="25.7410714285714" customWidth="1"/>
-    <col min="3" max="3" width="34.3660714285714" customWidth="1"/>
-    <col min="4" max="4" width="25.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="16.9642857142857" customWidth="1"/>
+    <col min="1" max="1" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="49.25" customWidth="1"/>
+    <col min="3" max="3" width="35.1160714285714" customWidth="1"/>
+    <col min="4" max="4" width="40.9196428571429" customWidth="1"/>
+    <col min="5" max="5" width="51.9375" customWidth="1"/>
+    <col min="6" max="6" width="20.3839285714286" customWidth="1"/>
+    <col min="7" max="7" width="16.9642857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="36" spans="1:5">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="2:2">
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2">
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" ht="53" spans="1:6">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" ht="124" spans="1:6">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" ht="141" spans="1:6">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" customFormat="1" ht="141" spans="1:6">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" ht="229" spans="1:6">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" ht="71" spans="1:5">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" ht="53" spans="1:5">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" ht="53" spans="1:5">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" ht="53" spans="1:5">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" ht="335" spans="1:5">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" ht="71" spans="1:5">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" ht="36" spans="1:5">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" ht="53" spans="1:5">
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" ht="36" spans="1:5">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>78</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" ht="53" spans="1:5">
+      <c r="A18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" ht="53" spans="1:5">
+      <c r="A19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" ht="53" spans="1:5">
+      <c r="A20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" ht="53" spans="1:5">
+      <c r="A21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" ht="53" spans="1:5">
+      <c r="A22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" ht="36" spans="1:5">
+      <c r="A23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" ht="36" spans="1:5">
+      <c r="A24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" ht="36" spans="1:5">
+      <c r="A25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" ht="71" spans="1:5">
+      <c r="A26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" ht="71" spans="1:5">
+      <c r="A27" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" ht="88" spans="1:5">
+      <c r="A28" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" ht="88" spans="1:5">
+      <c r="A29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" ht="71" spans="1:5">
+      <c r="A30" t="s">
+        <v>138</v>
+      </c>
+      <c r="B30" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E30" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" ht="36" spans="1:5">
+      <c r="A31" t="s">
+        <v>143</v>
+      </c>
+      <c r="B31" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31" t="s">
+        <v>146</v>
+      </c>
+      <c r="E31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" ht="36" spans="1:5">
+      <c r="A32" t="s">
+        <v>147</v>
+      </c>
+      <c r="B32" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32" t="s">
+        <v>150</v>
+      </c>
+      <c r="E32" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>152</v>
+      </c>
+      <c r="B33" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" t="s">
+        <v>155</v>
+      </c>
+      <c r="E33" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>157</v>
+      </c>
+      <c r="B34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" t="s">
+        <v>154</v>
+      </c>
+      <c r="D34" t="s">
+        <v>159</v>
+      </c>
+      <c r="E34" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>161</v>
+      </c>
+      <c r="B35" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>163</v>
+      </c>
+      <c r="E35" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>165</v>
+      </c>
+      <c r="B36" t="s">
+        <v>166</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>166</v>
+      </c>
+      <c r="E36" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="37" ht="53" spans="1:5">
+      <c r="A37" t="s">
+        <v>168</v>
+      </c>
+      <c r="B37" t="s">
+        <v>169</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>169</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" ht="71" spans="1:5">
+      <c r="A38" t="s">
+        <v>171</v>
+      </c>
+      <c r="B38" t="s">
+        <v>172</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>173</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>175</v>
+      </c>
+      <c r="B39" t="s">
+        <v>176</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
+        <v>177</v>
+      </c>
+      <c r="E39" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" ht="36" spans="1:5">
+      <c r="A40" t="s">
+        <v>179</v>
+      </c>
+      <c r="B40" t="s">
+        <v>180</v>
+      </c>
+      <c r="C40" t="s">
+        <v>181</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E40" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" ht="53" spans="1:5">
+      <c r="A41" t="s">
+        <v>184</v>
+      </c>
+      <c r="B41" t="s">
+        <v>185</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E41" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="42" ht="36" spans="1:5">
+      <c r="A42" t="s">
+        <v>188</v>
+      </c>
+      <c r="B42" t="s">
+        <v>189</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E42" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>192</v>
+      </c>
+      <c r="B43" t="s">
+        <v>193</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" t="s">
+        <v>194</v>
+      </c>
+      <c r="E43" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="44" ht="71" spans="2:5">
+      <c r="B44" t="s">
+        <v>196</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="45" ht="36" spans="1:5">
+      <c r="A45" t="s">
+        <v>199</v>
+      </c>
+      <c r="B45" t="s">
+        <v>200</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="46" ht="53" spans="1:5">
+      <c r="A46" t="s">
+        <v>203</v>
+      </c>
+      <c r="B46" t="s">
+        <v>204</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E46" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="47" ht="53" spans="1:5">
+      <c r="A47" t="s">
+        <v>206</v>
+      </c>
+      <c r="B47" t="s">
+        <v>207</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:B16"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -1207,59 +3317,255 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="14.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="15.9196428571429" customWidth="1"/>
-    <col min="3" max="3" width="17.5535714285714" customWidth="1"/>
-    <col min="4" max="4" width="13.5357142857143" customWidth="1"/>
-    <col min="5" max="5" width="16.9642857142857" customWidth="1"/>
+    <col min="1" max="1" width="49.25" customWidth="1"/>
+    <col min="2" max="2" width="80.6428571428571" customWidth="1"/>
+    <col min="3" max="3" width="46.2678571428571" customWidth="1"/>
+    <col min="4" max="4" width="26.9375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>210</v>
+      </c>
+      <c r="B2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>15</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="B8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" ht="36" spans="1:3">
+      <c r="A10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>236</v>
+      </c>
+      <c r="B11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>238</v>
+      </c>
+      <c r="B12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C12" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C13" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" t="s">
+        <v>244</v>
+      </c>
+      <c r="C14" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" t="s">
+        <v>245</v>
+      </c>
+      <c r="C15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>246</v>
+      </c>
+      <c r="B16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C16" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" ht="36" spans="1:3">
+      <c r="A17" t="s">
+        <v>249</v>
+      </c>
+      <c r="B17" t="s">
+        <v>250</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>252</v>
+      </c>
+      <c r="B18" t="s">
+        <v>253</v>
+      </c>
+      <c r="C18" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>255</v>
+      </c>
+      <c r="B19" t="s">
+        <v>256</v>
+      </c>
+      <c r="C19" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>257</v>
+      </c>
+      <c r="B20" t="s">
+        <v>258</v>
+      </c>
+      <c r="C20" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A22:B24"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -1268,14 +3574,230 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="24.8482142857143" customWidth="1"/>
+    <col min="2" max="2" width="27.9732142857143" customWidth="1"/>
+    <col min="3" max="3" width="38.3928571428571" customWidth="1"/>
+    <col min="4" max="4" width="60.4107142857143" customWidth="1"/>
+    <col min="5" max="5" width="37.0446428571429" customWidth="1"/>
+    <col min="6" max="6" width="16.9642857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="53" spans="1:5">
+      <c r="A2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" ht="36" spans="1:5">
+      <c r="A3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" ht="36" spans="1:5">
+      <c r="A4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" ht="36" spans="1:5">
+      <c r="A5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" ht="36" spans="1:5">
+      <c r="A6" t="s">
+        <v>282</v>
+      </c>
+      <c r="B6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D6" t="s">
+        <v>284</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>286</v>
+      </c>
+      <c r="B7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8" t="s">
+        <v>292</v>
+      </c>
+      <c r="E8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>294</v>
+      </c>
+      <c r="B9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="10" ht="53" spans="1:5">
+      <c r="A10" t="s">
+        <v>298</v>
+      </c>
+      <c r="B10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="11" ht="36" spans="1:5">
+      <c r="A11" t="s">
+        <v>302</v>
+      </c>
+      <c r="B11" t="s">
+        <v>303</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="12" ht="36" spans="1:5">
+      <c r="A12" t="s">
+        <v>306</v>
+      </c>
+      <c r="B12" t="s">
+        <v>307</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="E12" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="13" ht="53" spans="1:5">
+      <c r="A13" t="s">
+        <v>310</v>
+      </c>
+      <c r="B13" t="s">
+        <v>311</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -1284,32 +3806,64 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="33.1785714285714" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="21.5714285714286" customWidth="1"/>
+    <col min="1" max="1" width="21.1339285714286" customWidth="1"/>
+    <col min="2" max="2" width="96.1339285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>314</v>
+      </c>
+      <c r="B1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="3" ht="53" spans="1:2">
+      <c r="A3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="4" ht="88" spans="1:2">
       <c r="A4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>320</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="5" ht="53" spans="1:2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>322</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6" ht="36" spans="1:2">
+      <c r="A6" t="s">
+        <v>324</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -1321,31 +3875,87 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A9" sqref="A9:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.6428571428571" customWidth="1"/>
+    <col min="1" max="1" width="33.0357142857143" customWidth="1"/>
+    <col min="2" max="2" width="79.3125" customWidth="1"/>
+    <col min="3" max="3" width="21.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>326</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2" ht="53" spans="1:2">
+      <c r="A2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>334</v>
+      </c>
+      <c r="B6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>336</v>
+      </c>
+      <c r="B7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A9:B11"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -1354,17 +3964,275 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A8" sqref="A8:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <cols>
+    <col min="1" max="1" width="25.2857142857143" customWidth="1"/>
+    <col min="7" max="7" width="13.5357142857143" customWidth="1"/>
+    <col min="8" max="8" width="14.875" customWidth="1"/>
+    <col min="9" max="9" width="10.2589285714286" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H2" t="s">
+        <v>344</v>
+      </c>
+      <c r="I2" t="s">
+        <v>345</v>
+      </c>
+      <c r="J2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F3" t="s">
+        <v>340</v>
+      </c>
+      <c r="G3" t="s">
+        <v>344</v>
+      </c>
+      <c r="H3" t="s">
+        <v>347</v>
+      </c>
+      <c r="I3" t="s">
+        <v>340</v>
+      </c>
+      <c r="J3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:F10"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="25.5892857142857" customWidth="1"/>
+    <col min="2" max="2" width="107.294642857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>359</v>
+      </c>
+      <c r="B6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>361</v>
+      </c>
+      <c r="B7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>363</v>
+      </c>
+      <c r="B8" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>365</v>
+      </c>
+      <c r="B9" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>367</v>
+      </c>
+      <c r="B10" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>369</v>
+      </c>
+      <c r="B11" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>371</v>
+      </c>
+      <c r="B12" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>373</v>
+      </c>
+      <c r="B13" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>375</v>
+      </c>
+      <c r="B14" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>377</v>
+      </c>
+      <c r="B15" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>379</v>
+      </c>
+      <c r="B16" t="s">
+        <v>380</v>
       </c>
     </row>
   </sheetData>
